--- a/File_Excel.xlsx
+++ b/File_Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -364,12 +364,12 @@
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>2</v>
       </c>
@@ -377,9 +377,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
